--- a/Python/Learning_Some_Libraries/file_test_df_cripto_coin.xlsx
+++ b/Python/Learning_Some_Libraries/file_test_df_cripto_coin.xlsx
@@ -519,27 +519,27 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>63435.46</v>
+        <v>63261.11</v>
       </c>
       <c r="E2" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-2.05</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.17</v>
       </c>
-      <c r="F2" t="n">
-        <v>-1.1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.04</v>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>US$</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>23312218956</v>
+        <v>22560580318</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -547,10 +547,10 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>1253415422236</v>
+        <v>1250266213699</v>
       </c>
       <c r="M2" t="n">
-        <v>1332110347267.87</v>
+        <v>1329563621962.04</v>
       </c>
     </row>
     <row r="3">
@@ -571,19 +571,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2581.49</v>
+        <v>2571.78</v>
       </c>
       <c r="E3" t="n">
-        <v>0.14</v>
+        <v>-0.31</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.52</v>
+        <v>-3.75</v>
       </c>
       <c r="G3" t="n">
-        <v>11.65</v>
+        <v>9.83</v>
       </c>
       <c r="H3" t="n">
-        <v>-3.68</v>
+        <v>-4.24</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>14016068920</v>
+        <v>13934140016</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -599,10 +599,10 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>310681257493</v>
+        <v>309575395680</v>
       </c>
       <c r="M3" t="n">
-        <v>310677416832.34</v>
+        <v>309575396957.62</v>
       </c>
     </row>
     <row r="4">
@@ -626,24 +626,24 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.04</v>
+        <v>0.09</v>
       </c>
       <c r="F4" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.02</v>
       </c>
-      <c r="G4" t="n">
-        <v>-0.13</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.05</v>
-      </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>US$</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>46784069486</v>
+        <v>40531124074</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -651,10 +651,10 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>119214404962</v>
+        <v>119336533306</v>
       </c>
       <c r="M4" t="n">
-        <v>119215336910.99</v>
+        <v>119351485835.51</v>
       </c>
     </row>
     <row r="5">
@@ -675,19 +675,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>588.91</v>
+        <v>586.99</v>
       </c>
       <c r="E5" t="n">
-        <v>0.06</v>
+        <v>-0.1</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.06</v>
+        <v>-3.53</v>
       </c>
       <c r="G5" t="n">
-        <v>8.5</v>
+        <v>6.85</v>
       </c>
       <c r="H5" t="n">
-        <v>6.58</v>
+        <v>6.91</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -695,7 +695,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>860917844</v>
+        <v>750388753</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -703,10 +703,10 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>85887528100</v>
+        <v>85590757082</v>
       </c>
       <c r="M5" t="n">
-        <v>85886466352.69</v>
+        <v>85602173116.60001</v>
       </c>
     </row>
     <row r="6">
@@ -727,19 +727,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>150.1</v>
+        <v>149.05</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.35</v>
+        <v>-0.26</v>
       </c>
       <c r="F6" t="n">
-        <v>1.13</v>
+        <v>-2.79</v>
       </c>
       <c r="G6" t="n">
-        <v>16.25</v>
+        <v>13.42</v>
       </c>
       <c r="H6" t="n">
-        <v>-5.5</v>
+        <v>-5.62</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>2984289496</v>
+        <v>2814788293</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -755,10 +755,10 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>70353449795</v>
+        <v>69905304658</v>
       </c>
       <c r="M6" t="n">
-        <v>87841445212.2</v>
+        <v>87291250033.48</v>
       </c>
     </row>
     <row r="7">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.03</v>
+        <v>0.08</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03</v>
+        <v>-0.14</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -799,7 +799,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>5727067923</v>
+        <v>5894058593</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -807,10 +807,10 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>36087137184</v>
+        <v>36113974589</v>
       </c>
       <c r="M7" t="n">
-        <v>36047583591.89</v>
+        <v>36119080325.06</v>
       </c>
     </row>
     <row r="8">
@@ -834,16 +834,16 @@
         <v>0.59</v>
       </c>
       <c r="E8" t="n">
-        <v>0.18</v>
+        <v>-0.01</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.48</v>
+        <v>-1.22</v>
       </c>
       <c r="G8" t="n">
-        <v>2.16</v>
+        <v>0.8</v>
       </c>
       <c r="H8" t="n">
-        <v>1.13</v>
+        <v>-0.33</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>1217137768</v>
+        <v>1197075146</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -859,10 +859,10 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>33132150065</v>
+        <v>33093765262</v>
       </c>
       <c r="M8" t="n">
-        <v>58701973610.92</v>
+        <v>58567001091.61</v>
       </c>
     </row>
     <row r="9">
@@ -883,19 +883,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2580.34</v>
+        <v>2572.28</v>
       </c>
       <c r="E9" t="n">
-        <v>0.09</v>
+        <v>-0.27</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.56</v>
+        <v>-3.61</v>
       </c>
       <c r="G9" t="n">
-        <v>11.71</v>
+        <v>9.99</v>
       </c>
       <c r="H9" t="n">
-        <v>-3.92</v>
+        <v>-4.28</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -903,7 +903,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>33882151</v>
+        <v>33012685</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -911,10 +911,10 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>25274614017</v>
+        <v>25168608348</v>
       </c>
       <c r="M9" t="n">
-        <v>25275066509.45</v>
+        <v>25171761903.41</v>
       </c>
     </row>
     <row r="10">
@@ -938,16 +938,16 @@
         <v>0.11</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.11</v>
+        <v>-0.7</v>
       </c>
       <c r="F10" t="n">
-        <v>1.07</v>
+        <v>-1.09</v>
       </c>
       <c r="G10" t="n">
-        <v>8.08</v>
+        <v>6.7</v>
       </c>
       <c r="H10" t="n">
-        <v>4.22</v>
+        <v>3.68</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>789279604</v>
+        <v>786452923</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -963,10 +963,10 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>16085317800</v>
+        <v>15959576292</v>
       </c>
       <c r="M10" t="n">
-        <v>16085663920.81</v>
+        <v>15963140637.83</v>
       </c>
     </row>
     <row r="11">
@@ -987,19 +987,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>5.73</v>
+        <v>5.77</v>
       </c>
       <c r="E11" t="n">
-        <v>0.19</v>
+        <v>0.79</v>
       </c>
       <c r="F11" t="n">
-        <v>2.03</v>
+        <v>2.67</v>
       </c>
       <c r="G11" t="n">
-        <v>3.06</v>
+        <v>2.58</v>
       </c>
       <c r="H11" t="n">
-        <v>7.62</v>
+        <v>12.83</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>410192593</v>
+        <v>415072325</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1015,10 +1015,10 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>14531927107</v>
+        <v>14640229062</v>
       </c>
       <c r="M11" t="n">
-        <v>29297328155.34</v>
+        <v>29518836890.35</v>
       </c>
     </row>
     <row r="12">
@@ -1042,16 +1042,16 @@
         <v>0.38</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.11</v>
+        <v>0.08</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.82</v>
+        <v>-1.86</v>
       </c>
       <c r="G12" t="n">
-        <v>14.08</v>
+        <v>13.4</v>
       </c>
       <c r="H12" t="n">
-        <v>4.05</v>
+        <v>3.91</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>379759363</v>
+        <v>364878265</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1067,10 +1067,10 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>13667037083</v>
+        <v>13651192824</v>
       </c>
       <c r="M12" t="n">
-        <v>17236139476.55</v>
+        <v>17218666677.43</v>
       </c>
     </row>
     <row r="13">
@@ -1097,13 +1097,13 @@
         <v>-0.02</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.46</v>
+        <v>-0.91</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6</v>
+        <v>0.41</v>
       </c>
       <c r="H13" t="n">
-        <v>-7.4</v>
+        <v>-7.44</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>316123094</v>
+        <v>311450902</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>13026713958</v>
+        <v>13005630526</v>
       </c>
       <c r="M13" t="n">
-        <v>13026959732.52</v>
+        <v>13007366061.86</v>
       </c>
     </row>
     <row r="14">
@@ -1143,19 +1143,19 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>27.61</v>
+        <v>27.48</v>
       </c>
       <c r="E14" t="n">
-        <v>0.19</v>
+        <v>0.03</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1</v>
+        <v>-2.83</v>
       </c>
       <c r="G14" t="n">
-        <v>16.48</v>
+        <v>15.09</v>
       </c>
       <c r="H14" t="n">
-        <v>5.39</v>
+        <v>5.5</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1163,7 +1163,7 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>509208681</v>
+        <v>490837665</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>11206580385</v>
+        <v>11157811493</v>
       </c>
       <c r="M14" t="n">
-        <v>12310549921.54</v>
+        <v>12257130710.07</v>
       </c>
     </row>
     <row r="15">
@@ -1195,19 +1195,19 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3043.8</v>
+        <v>3029.6</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01</v>
+        <v>-0.44</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.49</v>
+        <v>-3.43</v>
       </c>
       <c r="G15" t="n">
-        <v>11.48</v>
+        <v>10.07</v>
       </c>
       <c r="H15" t="n">
-        <v>-3.73</v>
+        <v>-4.06</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>107518061</v>
+        <v>94921209</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1223,10 +1223,10 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>10652948006</v>
+        <v>10615089336</v>
       </c>
       <c r="M15" t="n">
-        <v>10653138726</v>
+        <v>10616505168.67</v>
       </c>
     </row>
     <row r="16">
@@ -1247,19 +1247,19 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>63279.91</v>
+        <v>63130.47</v>
       </c>
       <c r="E16" t="n">
-        <v>0.15</v>
+        <v>-0.24</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.04</v>
+        <v>-1.86</v>
       </c>
       <c r="G16" t="n">
-        <v>5.33</v>
+        <v>4.62</v>
       </c>
       <c r="H16" t="n">
-        <v>0.09</v>
+        <v>0.22</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>157002816</v>
+        <v>150999345</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1275,10 +1275,10 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>9644750231</v>
+        <v>9625949030</v>
       </c>
       <c r="M16" t="n">
-        <v>9644922901.58</v>
+        <v>9627232932.59</v>
       </c>
     </row>
     <row r="17">
@@ -1302,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.19</v>
+        <v>-0.54</v>
       </c>
       <c r="F17" t="n">
-        <v>5.43</v>
+        <v>3.14</v>
       </c>
       <c r="G17" t="n">
-        <v>15.7</v>
+        <v>13.96</v>
       </c>
       <c r="H17" t="n">
-        <v>6.92</v>
+        <v>4.95</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>588985149</v>
+        <v>591950583</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1327,10 +1327,10 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>9171982762</v>
+        <v>9066058451</v>
       </c>
       <c r="M17" t="n">
-        <v>15565244470.41</v>
+        <v>15387138711.03</v>
       </c>
     </row>
     <row r="18">
@@ -1351,19 +1351,19 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>12.22</v>
+        <v>12.15</v>
       </c>
       <c r="E18" t="n">
-        <v>0.21</v>
+        <v>-0.34</v>
       </c>
       <c r="F18" t="n">
-        <v>2.09</v>
+        <v>-0.47</v>
       </c>
       <c r="G18" t="n">
-        <v>16.16</v>
+        <v>14.19</v>
       </c>
       <c r="H18" t="n">
-        <v>1.67</v>
+        <v>1.84</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>486316342</v>
+        <v>465085535</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1379,10 +1379,10 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>7653185455</v>
+        <v>7623308041</v>
       </c>
       <c r="M18" t="n">
-        <v>12208807842.89</v>
+        <v>12164215242.16</v>
       </c>
     </row>
     <row r="19">
@@ -1403,19 +1403,19 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2583.06</v>
+        <v>2570.83</v>
       </c>
       <c r="E19" t="n">
-        <v>0.11</v>
+        <v>-0.4</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.56</v>
+        <v>-3.52</v>
       </c>
       <c r="G19" t="n">
-        <v>11.8</v>
+        <v>10.03</v>
       </c>
       <c r="H19" t="n">
-        <v>-3.94</v>
+        <v>-4.28</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>645727200</v>
+        <v>647437773</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1431,10 +1431,10 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>7513715699</v>
+        <v>7502767213</v>
       </c>
       <c r="M19" t="n">
-        <v>7513850217.1</v>
+        <v>7503767926.34</v>
       </c>
     </row>
     <row r="20">
@@ -1455,19 +1455,19 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>346.42</v>
+        <v>344.61</v>
       </c>
       <c r="E20" t="n">
-        <v>0.33</v>
+        <v>-0.58</v>
       </c>
       <c r="F20" t="n">
-        <v>0.08</v>
+        <v>-0.97</v>
       </c>
       <c r="G20" t="n">
-        <v>10.67</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="H20" t="n">
-        <v>0.49</v>
+        <v>0.84</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>264958075</v>
+        <v>259229263</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1483,10 +1483,10 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>6846185724</v>
+        <v>6816421297</v>
       </c>
       <c r="M20" t="n">
-        <v>7273597052.36</v>
+        <v>7243023012.7</v>
       </c>
     </row>
     <row r="21">
@@ -1507,19 +1507,19 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>4.72</v>
+        <v>4.67</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.24</v>
+        <v>-0.31</v>
       </c>
       <c r="F21" t="n">
-        <v>2.93</v>
+        <v>-0.1</v>
       </c>
       <c r="G21" t="n">
-        <v>16.32</v>
+        <v>13.58</v>
       </c>
       <c r="H21" t="n">
-        <v>3.28</v>
+        <v>2.29</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>218690379</v>
+        <v>217829312</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1535,10 +1535,10 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>6681567558</v>
+        <v>6623762804</v>
       </c>
       <c r="M21" t="n">
-        <v>7063384030.7</v>
+        <v>7002280971.42</v>
       </c>
     </row>
     <row r="22">
@@ -1559,19 +1559,19 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>5.25</v>
+        <v>5.18</v>
       </c>
       <c r="E22" t="n">
-        <v>0.74</v>
+        <v>-0.18</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.82</v>
+        <v>-3.75</v>
       </c>
       <c r="G22" t="n">
-        <v>28.18</v>
+        <v>25.63</v>
       </c>
       <c r="H22" t="n">
-        <v>8.77</v>
+        <v>7.47</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>402938413</v>
+        <v>397305345</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1587,10 +1587,10 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>5809094581</v>
+        <v>5736447995</v>
       </c>
       <c r="M22" t="n">
-        <v>6208298346.2</v>
+        <v>6130549721.39</v>
       </c>
     </row>
     <row r="23">
@@ -1614,16 +1614,16 @@
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.02</v>
+        <v>0.06</v>
       </c>
       <c r="F23" t="n">
-        <v>0.03</v>
+        <v>-0.08</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-0.04</v>
       </c>
       <c r="H23" t="n">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>70343217</v>
+        <v>67475793</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1639,10 +1639,10 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>5409162893</v>
+        <v>5410305404</v>
       </c>
       <c r="M23" t="n">
-        <v>5409096024.49</v>
+        <v>5411604119.48</v>
       </c>
     </row>
     <row r="24">
@@ -1663,19 +1663,19 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>5.75</v>
+        <v>5.77</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.24</v>
+        <v>0.16</v>
       </c>
       <c r="F24" t="n">
-        <v>3.46</v>
+        <v>3.81</v>
       </c>
       <c r="G24" t="n">
-        <v>1.08</v>
+        <v>2.53</v>
       </c>
       <c r="H24" t="n">
-        <v>-1.63</v>
+        <v>-0.97</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>2212080</v>
+        <v>1924028</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1691,10 +1691,10 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>5318078938</v>
+        <v>5335115102</v>
       </c>
       <c r="M24" t="n">
-        <v>5661899429.97</v>
+        <v>5680216124.85</v>
       </c>
     </row>
     <row r="25">
@@ -1715,19 +1715,19 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>6.86</v>
+        <v>6.81</v>
       </c>
       <c r="E25" t="n">
-        <v>0.33</v>
+        <v>-0.57</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.75</v>
+        <v>-2.22</v>
       </c>
       <c r="G25" t="n">
-        <v>4.62</v>
+        <v>3.1</v>
       </c>
       <c r="H25" t="n">
-        <v>9.17</v>
+        <v>8.09</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>185772144</v>
+        <v>186164447</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1743,10 +1743,10 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>5168481060</v>
+        <v>5135817275</v>
       </c>
       <c r="M25" t="n">
-        <v>6856994103.97</v>
+        <v>6814446050.57</v>
       </c>
     </row>
     <row r="26">
@@ -1767,19 +1767,19 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>67.29000000000001</v>
+        <v>66.95</v>
       </c>
       <c r="E26" t="n">
-        <v>0.48</v>
+        <v>0.01</v>
       </c>
       <c r="F26" t="n">
-        <v>1.45</v>
+        <v>-0.02</v>
       </c>
       <c r="G26" t="n">
-        <v>4.85</v>
+        <v>4.44</v>
       </c>
       <c r="H26" t="n">
-        <v>5.48</v>
+        <v>5.4</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>302157947</v>
+        <v>303124526</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1795,10 +1795,10 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>5046270981</v>
+        <v>5024909378</v>
       </c>
       <c r="M26" t="n">
-        <v>5650554588.92</v>
+        <v>5626793650.53</v>
       </c>
     </row>
     <row r="27">
@@ -1822,16 +1822,16 @@
         <v>1.69</v>
       </c>
       <c r="E27" t="n">
-        <v>0.43</v>
+        <v>0.31</v>
       </c>
       <c r="F27" t="n">
-        <v>1.32</v>
+        <v>-4.18</v>
       </c>
       <c r="G27" t="n">
-        <v>37.39</v>
+        <v>33.76</v>
       </c>
       <c r="H27" t="n">
-        <v>81</v>
+        <v>80.56</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>959400365</v>
+        <v>892254328</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -1847,10 +1847,10 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>4538965323</v>
+        <v>4525580832</v>
       </c>
       <c r="M27" t="n">
-        <v>16936667059.16</v>
+        <v>16888839914.15</v>
       </c>
     </row>
     <row r="28">
@@ -1871,19 +1871,19 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="E28" t="n">
-        <v>0.34</v>
+        <v>-0.61</v>
       </c>
       <c r="F28" t="n">
-        <v>-3</v>
+        <v>-4.48</v>
       </c>
       <c r="G28" t="n">
-        <v>22.69</v>
+        <v>19.57</v>
       </c>
       <c r="H28" t="n">
-        <v>25.23</v>
+        <v>24.56</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>377471652</v>
+        <v>368825821</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1899,10 +1899,10 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>4360225696</v>
+        <v>4314845858</v>
       </c>
       <c r="M28" t="n">
-        <v>4543159493.37</v>
+        <v>4495931336.62</v>
       </c>
     </row>
     <row r="29">
@@ -1923,19 +1923,19 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>9.16</v>
+        <v>9.09</v>
       </c>
       <c r="E29" t="n">
-        <v>0.52</v>
+        <v>0.22</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.84</v>
+        <v>-3.86</v>
       </c>
       <c r="G29" t="n">
-        <v>16.56</v>
+        <v>14.62</v>
       </c>
       <c r="H29" t="n">
-        <v>12.18</v>
+        <v>11.61</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -1943,7 +1943,7 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>137167388</v>
+        <v>141126300</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -1951,10 +1951,10 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>4313758876</v>
+        <v>4286865074</v>
       </c>
       <c r="M29" t="n">
-        <v>4790454697.99</v>
+        <v>4760739760.44</v>
       </c>
     </row>
     <row r="30">
@@ -1975,19 +1975,19 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>2704.53</v>
+        <v>2691.6</v>
       </c>
       <c r="E30" t="n">
-        <v>0.22</v>
+        <v>-0.31</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.48</v>
+        <v>-3.81</v>
       </c>
       <c r="G30" t="n">
-        <v>11.83</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="H30" t="n">
-        <v>-3.75</v>
+        <v>-4.21</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -1995,7 +1995,7 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>69763484</v>
+        <v>36852776</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -2003,10 +2003,10 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>4261997988</v>
+        <v>4244482954</v>
       </c>
       <c r="M30" t="n">
-        <v>4261884671</v>
+        <v>4245254815.98</v>
       </c>
     </row>
     <row r="31">
@@ -2027,19 +2027,19 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>555.65</v>
+        <v>557.6799999999999</v>
       </c>
       <c r="E31" t="n">
-        <v>0.24</v>
+        <v>0.64</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.34</v>
+        <v>-0.24</v>
       </c>
       <c r="G31" t="n">
-        <v>73.08</v>
+        <v>69.41</v>
       </c>
       <c r="H31" t="n">
-        <v>64.02</v>
+        <v>64.45</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>207363614</v>
+        <v>200152324</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -2055,10 +2055,10 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>4095546127</v>
+        <v>4115642613</v>
       </c>
       <c r="M31" t="n">
-        <v>11652233768.4</v>
+        <v>11711684404.04</v>
       </c>
     </row>
     <row r="32">
@@ -2079,19 +2079,19 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>8.08</v>
+        <v>8.02</v>
       </c>
       <c r="E32" t="n">
-        <v>0.42</v>
+        <v>-0.05</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.22</v>
+        <v>-3.13</v>
       </c>
       <c r="G32" t="n">
-        <v>33.73</v>
+        <v>31.77</v>
       </c>
       <c r="H32" t="n">
-        <v>15.4</v>
+        <v>14.35</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>293787635</v>
+        <v>278228645</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -2107,10 +2107,10 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>4049759715</v>
+        <v>4019494641</v>
       </c>
       <c r="M32" t="n">
-        <v>9033092775.5</v>
+        <v>8965671721.32</v>
       </c>
     </row>
     <row r="33">
@@ -2134,16 +2134,16 @@
         <v>0.16</v>
       </c>
       <c r="E33" t="n">
-        <v>0.26</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="F33" t="n">
-        <v>0.61</v>
+        <v>-1.76</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.55</v>
+        <v>-4.95</v>
       </c>
       <c r="H33" t="n">
-        <v>-3.17</v>
+        <v>-3.33</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>51040936</v>
+        <v>45779478</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -2159,10 +2159,10 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>4030241245</v>
+        <v>4016044943</v>
       </c>
       <c r="M33" t="n">
-        <v>4031756071.64</v>
+        <v>4016428091.62</v>
       </c>
     </row>
     <row r="34">
@@ -2186,16 +2186,16 @@
         <v>0.06</v>
       </c>
       <c r="E34" t="n">
-        <v>0.64</v>
+        <v>-0.72</v>
       </c>
       <c r="F34" t="n">
-        <v>1.18</v>
+        <v>-1.6</v>
       </c>
       <c r="G34" t="n">
-        <v>17.83</v>
+        <v>16.42</v>
       </c>
       <c r="H34" t="n">
-        <v>0.13</v>
+        <v>0.8</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>1443498605</v>
+        <v>1406865916</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -2211,10 +2211,10 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>3617955954</v>
+        <v>3606387328</v>
       </c>
       <c r="M34" t="n">
-        <v>3618250312.34</v>
+        <v>3603923423.67</v>
       </c>
     </row>
     <row r="35">
@@ -2235,19 +2235,19 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>166.58</v>
+        <v>165.14</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1</v>
+        <v>-0.33</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.21</v>
+        <v>-2.24</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.77</v>
+        <v>-3.5</v>
       </c>
       <c r="H35" t="n">
-        <v>0.29</v>
+        <v>-0.77</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>51857070</v>
+        <v>50934610</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -2263,10 +2263,10 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>3073230378</v>
+        <v>3051127297</v>
       </c>
       <c r="M35" t="n">
-        <v>3073285398.09</v>
+        <v>3051127309.58</v>
       </c>
     </row>
     <row r="36">
@@ -2290,16 +2290,16 @@
         <v>0.41</v>
       </c>
       <c r="E36" t="n">
-        <v>0.53</v>
+        <v>-0.3</v>
       </c>
       <c r="F36" t="n">
-        <v>1.45</v>
+        <v>0.9</v>
       </c>
       <c r="G36" t="n">
-        <v>8.59</v>
+        <v>7.53</v>
       </c>
       <c r="H36" t="n">
-        <v>-18.61</v>
+        <v>-18.17</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>110901984</v>
+        <v>110269633</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -2315,10 +2315,10 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>3042226353</v>
+        <v>3045537054</v>
       </c>
       <c r="M36" t="n">
-        <v>4235572018.35</v>
+        <v>4237123428.51</v>
       </c>
     </row>
     <row r="37">
@@ -2342,16 +2342,16 @@
         <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.14</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.03</v>
+        <v>-0.15</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.18</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="H37" t="n">
-        <v>0.23</v>
+        <v>-0.2</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>3607430874</v>
+        <v>1837664342</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -2367,10 +2367,10 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>3020325026</v>
+        <v>3021988076</v>
       </c>
       <c r="M37" t="n">
-        <v>3020287688.84</v>
+        <v>3022713487.79</v>
       </c>
     </row>
     <row r="38">
@@ -2391,19 +2391,19 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>19.53</v>
+        <v>19.38</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1</v>
+        <v>-0.47</v>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>-0.49</v>
       </c>
       <c r="G38" t="n">
-        <v>9.109999999999999</v>
+        <v>7.44</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.08</v>
+        <v>-0.54</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>138882166</v>
+        <v>139453239</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -2419,10 +2419,10 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2908147666</v>
+        <v>2886918173</v>
       </c>
       <c r="M38" t="n">
-        <v>4115481354.48</v>
+        <v>4085458877.32</v>
       </c>
     </row>
     <row r="39">
@@ -2446,16 +2446,16 @@
         <v>0.1</v>
       </c>
       <c r="E39" t="n">
-        <v>0.25</v>
+        <v>-0.13</v>
       </c>
       <c r="F39" t="n">
-        <v>0.23</v>
+        <v>-0.84</v>
       </c>
       <c r="G39" t="n">
-        <v>1.85</v>
+        <v>0.9</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.82</v>
+        <v>-1.2</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>54358753</v>
+        <v>54006692</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -2471,10 +2471,10 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2850837674</v>
+        <v>2842527505</v>
       </c>
       <c r="M39" t="n">
-        <v>4815767792.21</v>
+        <v>4802293979.1</v>
       </c>
     </row>
     <row r="40">
@@ -2495,19 +2495,19 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="E40" t="n">
-        <v>0.06</v>
+        <v>-0.45</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.02</v>
+        <v>-4.57</v>
       </c>
       <c r="G40" t="n">
-        <v>25.23</v>
+        <v>23.44</v>
       </c>
       <c r="H40" t="n">
-        <v>7.78</v>
+        <v>5.88</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>143718126</v>
+        <v>140377680</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -2523,10 +2523,10 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2846396237</v>
+        <v>2818885145</v>
       </c>
       <c r="M40" t="n">
-        <v>3471444912.34</v>
+        <v>3438370559.39</v>
       </c>
     </row>
     <row r="41">
@@ -2550,16 +2550,16 @@
         <v>1.75</v>
       </c>
       <c r="E41" t="n">
-        <v>0.1</v>
+        <v>-0.39</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.84</v>
+        <v>-1.88</v>
       </c>
       <c r="G41" t="n">
-        <v>29.73</v>
+        <v>27.56</v>
       </c>
       <c r="H41" t="n">
-        <v>22.49</v>
+        <v>22.61</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>91818621</v>
+        <v>93732382</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -2575,10 +2575,10 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2815623900</v>
+        <v>2804017022</v>
       </c>
       <c r="M41" t="n">
-        <v>3507800561.46</v>
+        <v>3493450479.31</v>
       </c>
     </row>
     <row r="42">
@@ -2602,16 +2602,16 @@
         <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.05</v>
+        <v>0.05</v>
       </c>
       <c r="G42" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.01</v>
+        <v>-0</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>32501441</v>
+        <v>30273716</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -2627,10 +2627,10 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2556903933</v>
+        <v>2560126674</v>
       </c>
       <c r="M42" t="n">
-        <v>2556923921.3</v>
+        <v>2560579899.24</v>
       </c>
     </row>
     <row r="43">
@@ -2651,19 +2651,19 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>165.94</v>
+        <v>165.66</v>
       </c>
       <c r="E43" t="n">
-        <v>0.5600000000000001</v>
+        <v>-0.01</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.6899999999999999</v>
+        <v>-1.41</v>
       </c>
       <c r="G43" t="n">
-        <v>20.12</v>
+        <v>20.01</v>
       </c>
       <c r="H43" t="n">
-        <v>28.33</v>
+        <v>28.64</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>409814181</v>
+        <v>400645336</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2679,10 +2679,10 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2477353621</v>
+        <v>2476038265</v>
       </c>
       <c r="M43" t="n">
-        <v>2653456467.36</v>
+        <v>2652240536.78</v>
       </c>
     </row>
     <row r="44">
@@ -2703,19 +2703,19 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>39.73</v>
+        <v>39.65</v>
       </c>
       <c r="E44" t="n">
-        <v>0.14</v>
+        <v>-0.2</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.57</v>
+        <v>-1.91</v>
       </c>
       <c r="G44" t="n">
-        <v>4.15</v>
+        <v>4.04</v>
       </c>
       <c r="H44" t="n">
-        <v>4.36</v>
+        <v>4.46</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>3790099</v>
+        <v>3853533</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2731,10 +2731,10 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2384171606</v>
+        <v>2385062558</v>
       </c>
       <c r="M44" t="n">
-        <v>9376228086.870001</v>
+        <v>9373155836.18</v>
       </c>
     </row>
     <row r="45">
@@ -2755,19 +2755,19 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>6.06</v>
+        <v>5.99</v>
       </c>
       <c r="E45" t="n">
-        <v>0.77</v>
+        <v>-0.64</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.28</v>
+        <v>-5</v>
       </c>
       <c r="G45" t="n">
-        <v>25.72</v>
+        <v>23.72</v>
       </c>
       <c r="H45" t="n">
-        <v>-1.25</v>
+        <v>-2.67</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>391985077</v>
+        <v>388193916</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2783,10 +2783,10 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2379280298</v>
+        <v>2346272991</v>
       </c>
       <c r="M45" t="n">
-        <v>3226633045.79</v>
+        <v>3182212282.51</v>
       </c>
     </row>
     <row r="46">
@@ -2807,19 +2807,19 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>4.01</v>
+        <v>3.96</v>
       </c>
       <c r="E46" t="n">
-        <v>1.03</v>
+        <v>-0.73</v>
       </c>
       <c r="F46" t="n">
-        <v>4.55</v>
+        <v>2.4</v>
       </c>
       <c r="G46" t="n">
-        <v>14.33</v>
+        <v>13.18</v>
       </c>
       <c r="H46" t="n">
-        <v>2.21</v>
+        <v>1.2</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>268697156</v>
+        <v>263705144</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2835,10 +2835,10 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>2358870666</v>
+        <v>2330727892</v>
       </c>
       <c r="M46" t="n">
-        <v>7871515619.99</v>
+        <v>7777644285.54</v>
       </c>
     </row>
     <row r="47">
@@ -2859,19 +2859,19 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="E47" t="n">
-        <v>0.18</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.09</v>
+        <v>-1.65</v>
       </c>
       <c r="G47" t="n">
-        <v>6.72</v>
+        <v>6.05</v>
       </c>
       <c r="H47" t="n">
-        <v>0.29</v>
+        <v>-0.66</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>7483291</v>
+        <v>6123094</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2887,10 +2887,10 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2301878631</v>
+        <v>2287933816</v>
       </c>
       <c r="M47" t="n">
-        <v>2559447502.72</v>
+        <v>2544566272.39</v>
       </c>
     </row>
     <row r="48">
@@ -2901,81 +2901,81 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>Hedera
+HBAR</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>US$</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F48" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="G48" t="n">
+        <v>18.67</v>
+      </c>
+      <c r="H48" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>US$</t>
+        </is>
+      </c>
+      <c r="J48" t="n">
+        <v>90221131</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>US$</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>2225185207</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2956940558.59</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
           <t>Injective
 INJ</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>US$</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>23.12</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="F48" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="G48" t="n">
-        <v>20.06</v>
-      </c>
-      <c r="H48" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>US$</t>
-        </is>
-      </c>
-      <c r="J48" t="n">
-        <v>203996905</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>US$</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>2258225608</v>
-      </c>
-      <c r="M48" t="n">
-        <v>2310670816.04</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Hedera
-HBAR</t>
-        </is>
-      </c>
       <c r="C49" t="inlineStr">
         <is>
           <t>US$</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.06</v>
+        <v>22.61</v>
       </c>
       <c r="E49" t="n">
-        <v>1.1</v>
+        <v>-0.8</v>
       </c>
       <c r="F49" t="n">
-        <v>3.21</v>
+        <v>1.86</v>
       </c>
       <c r="G49" t="n">
-        <v>19.61</v>
+        <v>17.24</v>
       </c>
       <c r="H49" t="n">
-        <v>4.71</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>90043219</v>
+        <v>208375367</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2991,10 +2991,10 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2216298162</v>
+        <v>2210754259</v>
       </c>
       <c r="M49" t="n">
-        <v>2945094575.9</v>
+        <v>2262168324.6</v>
       </c>
     </row>
     <row r="50">
@@ -3015,19 +3015,19 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.03</v>
+        <v>-1.05</v>
       </c>
       <c r="F50" t="n">
-        <v>0.13</v>
+        <v>-2.3</v>
       </c>
       <c r="G50" t="n">
-        <v>19.57</v>
+        <v>16.47</v>
       </c>
       <c r="H50" t="n">
-        <v>5.95</v>
+        <v>5.25</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>312391596</v>
+        <v>313860593</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -3043,10 +3043,10 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2209217033</v>
+        <v>2182203078</v>
       </c>
       <c r="M50" t="n">
-        <v>6107831478.22</v>
+        <v>6033402171.72</v>
       </c>
     </row>
     <row r="51">
@@ -3057,81 +3057,81 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
+          <t>Mantle
+MNT</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>US$</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-0.99</v>
+      </c>
+      <c r="G51" t="n">
+        <v>10.13</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>US$</t>
+        </is>
+      </c>
+      <c r="J51" t="n">
+        <v>81787113</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>US$</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>2045828458</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3895722741.3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
           <t>dogwifhat
 WIF</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>US$</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="E51" t="n">
-        <v>-0.46</v>
-      </c>
-      <c r="F51" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="G51" t="n">
-        <v>41.17</v>
-      </c>
-      <c r="H51" t="n">
-        <v>17.37</v>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>US$</t>
-        </is>
-      </c>
-      <c r="J51" t="n">
-        <v>752022553</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>US$</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>2101151332</v>
-      </c>
-      <c r="M51" t="n">
-        <v>2101167757.91</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Mantle
-MNT</t>
-        </is>
-      </c>
       <c r="C52" t="inlineStr">
         <is>
           <t>US$</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.63</v>
+        <v>2.05</v>
       </c>
       <c r="E52" t="n">
-        <v>0.26</v>
+        <v>-0.9</v>
       </c>
       <c r="F52" t="n">
-        <v>0.16</v>
+        <v>1.64</v>
       </c>
       <c r="G52" t="n">
-        <v>11.46</v>
+        <v>33.78</v>
       </c>
       <c r="H52" t="n">
-        <v>1.99</v>
+        <v>14.8</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>82932764</v>
+        <v>742886317</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -3147,16 +3147,16 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2055635491</v>
+        <v>2045223837</v>
       </c>
       <c r="M52" t="n">
-        <v>3913555315.83</v>
+        <v>2045714781.82</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>52</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3171,19 +3171,19 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="E53" t="n">
-        <v>0.24</v>
+        <v>-0.44</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9</v>
+        <v>-2.74</v>
       </c>
       <c r="G53" t="n">
-        <v>16.7</v>
+        <v>14.86</v>
       </c>
       <c r="H53" t="n">
-        <v>15.24</v>
+        <v>14.68</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>173131789</v>
+        <v>165428862</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -3199,16 +3199,16 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>2033404054</v>
+        <v>2017072328</v>
       </c>
       <c r="M53" t="n">
-        <v>7353848099.84</v>
+        <v>7295698003.05</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>53</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3223,19 +3223,19 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E54" t="n">
-        <v>0.46</v>
+        <v>-1.07</v>
       </c>
       <c r="F54" t="n">
-        <v>2.35</v>
+        <v>0.14</v>
       </c>
       <c r="G54" t="n">
-        <v>16.58</v>
+        <v>14.97</v>
       </c>
       <c r="H54" t="n">
-        <v>4.16</v>
+        <v>3.54</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>34881433</v>
+        <v>34817200</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -3251,10 +3251,10 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2033088328</v>
+        <v>2008247780</v>
       </c>
       <c r="M54" t="n">
-        <v>2158649434.15</v>
+        <v>2132503752.91</v>
       </c>
     </row>
     <row r="55">
@@ -3275,19 +3275,19 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="E55" t="n">
-        <v>0.44</v>
+        <v>-0.53</v>
       </c>
       <c r="F55" t="n">
-        <v>1.11</v>
+        <v>-0.66</v>
       </c>
       <c r="G55" t="n">
-        <v>13.45</v>
+        <v>11.83</v>
       </c>
       <c r="H55" t="n">
-        <v>-1.97</v>
+        <v>-1.92</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
@@ -3295,7 +3295,7 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>179981411</v>
+        <v>177145241</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -3303,10 +3303,10 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>1891237603</v>
+        <v>1877377629</v>
       </c>
       <c r="M55" t="n">
-        <v>1892384057.67</v>
+        <v>1878989838.46</v>
       </c>
     </row>
     <row r="56">
@@ -3327,19 +3327,19 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="E56" t="n">
-        <v>0.35</v>
+        <v>-0.91</v>
       </c>
       <c r="F56" t="n">
-        <v>0.58</v>
+        <v>-2.6</v>
       </c>
       <c r="G56" t="n">
-        <v>8.050000000000001</v>
+        <v>2.55</v>
       </c>
       <c r="H56" t="n">
-        <v>39.24</v>
+        <v>37.58</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>456838984</v>
+        <v>431632779</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -3355,10 +3355,10 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1873073665</v>
+        <v>1842515644</v>
       </c>
       <c r="M56" t="n">
-        <v>2121151903.49</v>
+        <v>2086572445.02</v>
       </c>
     </row>
     <row r="57">
@@ -3382,16 +3382,16 @@
         <v>0.18</v>
       </c>
       <c r="E57" t="n">
-        <v>0.46</v>
+        <v>-0.52</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.37</v>
+        <v>-4.19</v>
       </c>
       <c r="G57" t="n">
-        <v>28.44</v>
+        <v>27.23</v>
       </c>
       <c r="H57" t="n">
-        <v>11.57</v>
+        <v>10.49</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>63756444</v>
+        <v>72030025</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -3407,10 +3407,10 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1734821477</v>
+        <v>1714994677</v>
       </c>
       <c r="M57" t="n">
-        <v>1960049734.72</v>
+        <v>1937856950.91</v>
       </c>
     </row>
     <row r="58">
@@ -3431,19 +3431,19 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>5.11</v>
+        <v>5.05</v>
       </c>
       <c r="E58" t="n">
-        <v>1.38</v>
+        <v>-1.27</v>
       </c>
       <c r="F58" t="n">
-        <v>6.49</v>
+        <v>3.43</v>
       </c>
       <c r="G58" t="n">
-        <v>28.62</v>
+        <v>23.87</v>
       </c>
       <c r="H58" t="n">
-        <v>20.03</v>
+        <v>19.25</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>290465650</v>
+        <v>281288904</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -3459,16 +3459,16 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1718744781</v>
+        <v>1699813196</v>
       </c>
       <c r="M58" t="n">
-        <v>2117881664.64</v>
+        <v>2094768254.27</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>59</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3486,16 +3486,16 @@
         <v>0.46</v>
       </c>
       <c r="E59" t="n">
-        <v>0.11</v>
+        <v>-0.62</v>
       </c>
       <c r="F59" t="n">
-        <v>11.28</v>
+        <v>5.46</v>
       </c>
       <c r="G59" t="n">
-        <v>65.34</v>
+        <v>54.02</v>
       </c>
       <c r="H59" t="n">
-        <v>36.46</v>
+        <v>36.04</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>651664082</v>
+        <v>593188524</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -3511,16 +3511,16 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>1627085578</v>
+        <v>1615239328</v>
       </c>
       <c r="M59" t="n">
-        <v>4615970424.77</v>
+        <v>4582993945.75</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>58</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3535,19 +3535,19 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>11.25</v>
+        <v>11.19</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.24</v>
+        <v>-0.36</v>
       </c>
       <c r="F60" t="n">
-        <v>0.5</v>
+        <v>-0.16</v>
       </c>
       <c r="G60" t="n">
-        <v>3.51</v>
+        <v>2.95</v>
       </c>
       <c r="H60" t="n">
-        <v>2.29</v>
+        <v>2.02</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -3555,7 +3555,7 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>3340171</v>
+        <v>3777209</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -3563,10 +3563,10 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1621810544</v>
+        <v>1613239261</v>
       </c>
       <c r="M60" t="n">
-        <v>3870805786.87</v>
+        <v>3850903100.61</v>
       </c>
     </row>
     <row r="61">
@@ -3587,19 +3587,19 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2581.11</v>
+        <v>2573.8</v>
       </c>
       <c r="E61" t="n">
-        <v>0.05</v>
+        <v>-0.36</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.51</v>
+        <v>-3.45</v>
       </c>
       <c r="G61" t="n">
-        <v>11.39</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="H61" t="n">
-        <v>-3.9</v>
+        <v>-4.19</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>37819171</v>
+        <v>37034545</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -3615,10 +3615,10 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>1561996671</v>
+        <v>1556200284</v>
       </c>
       <c r="M61" t="n">
-        <v>1561955140.72</v>
+        <v>1556483280.34</v>
       </c>
     </row>
     <row r="62">
@@ -3639,19 +3639,19 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>23.04</v>
+        <v>22.49</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.14</v>
+        <v>-1.27</v>
       </c>
       <c r="F62" t="n">
-        <v>1.59</v>
+        <v>-2.53</v>
       </c>
       <c r="G62" t="n">
-        <v>23.02</v>
+        <v>20.01</v>
       </c>
       <c r="H62" t="n">
-        <v>-7.11</v>
+        <v>-10.23</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>117770759</v>
+        <v>121901139</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -3667,10 +3667,10 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>1509114469</v>
+        <v>1471466856</v>
       </c>
       <c r="M62" t="n">
-        <v>1509151934.63</v>
+        <v>1471466862.47</v>
       </c>
     </row>
     <row r="63">
@@ -3691,19 +3691,19 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>2885.82</v>
+        <v>2873.26</v>
       </c>
       <c r="E63" t="n">
-        <v>0.09</v>
+        <v>-0.45</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.41</v>
+        <v>-3.47</v>
       </c>
       <c r="G63" t="n">
-        <v>11.72</v>
+        <v>9.81</v>
       </c>
       <c r="H63" t="n">
-        <v>-4.02</v>
+        <v>-4.23</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>3848341</v>
+        <v>3981853</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -3719,10 +3719,10 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1415375220</v>
+        <v>1409386591</v>
       </c>
       <c r="M63" t="n">
-        <v>1415375236.28</v>
+        <v>1409563182.89</v>
       </c>
     </row>
     <row r="64">
@@ -3746,16 +3746,16 @@
         <v>1.4</v>
       </c>
       <c r="E64" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0.43</v>
+        <v>-0.79</v>
       </c>
       <c r="G64" t="n">
-        <v>5.62</v>
+        <v>4.52</v>
       </c>
       <c r="H64" t="n">
-        <v>4.73</v>
+        <v>5.15</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>39245857</v>
+        <v>39485393</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -3771,10 +3771,10 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1404249959</v>
+        <v>1397098916</v>
       </c>
       <c r="M64" t="n">
-        <v>1404275098.94</v>
+        <v>1397273968.34</v>
       </c>
     </row>
     <row r="65">
@@ -3795,19 +3795,19 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1568.03</v>
+        <v>1551.05</v>
       </c>
       <c r="E65" t="n">
-        <v>0.35</v>
+        <v>-0.36</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.17</v>
+        <v>-2.96</v>
       </c>
       <c r="G65" t="n">
-        <v>6.51</v>
+        <v>4.34</v>
       </c>
       <c r="H65" t="n">
-        <v>-25.24</v>
+        <v>-25.61</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>78596626</v>
+        <v>78663515</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -3823,10 +3823,10 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>1382477166</v>
+        <v>1370219053</v>
       </c>
       <c r="M65" t="n">
-        <v>1451906878.11</v>
+        <v>1439117543.13</v>
       </c>
     </row>
     <row r="66">
@@ -3837,81 +3837,81 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
+          <t>Bitget Token
+BGB</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>US$</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="G66" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="H66" t="n">
+        <v>-1.99</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>US$</t>
+        </is>
+      </c>
+      <c r="J66" t="n">
+        <v>26510725</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>US$</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1366518789</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1952168312.12</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
           <t>FLOKI
 FLOKI</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>US$</t>
-        </is>
-      </c>
-      <c r="D66" t="n">
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>US$</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
         <v>0</v>
       </c>
-      <c r="E66" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="G66" t="n">
-        <v>16.68</v>
-      </c>
-      <c r="H66" t="n">
-        <v>-5.01</v>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>US$</t>
-        </is>
-      </c>
-      <c r="J66" t="n">
-        <v>269429562</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>US$</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1373708203</v>
-      </c>
-      <c r="M66" t="n">
-        <v>1417662003.37</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Bitget Token
-BGB</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>US$</t>
-        </is>
-      </c>
-      <c r="D67" t="n">
-        <v>0.98</v>
-      </c>
       <c r="E67" t="n">
-        <v>-0.03</v>
+        <v>-1.49</v>
       </c>
       <c r="F67" t="n">
-        <v>0.6899999999999999</v>
+        <v>-2.38</v>
       </c>
       <c r="G67" t="n">
-        <v>7.88</v>
+        <v>11.56</v>
       </c>
       <c r="H67" t="n">
-        <v>-1.55</v>
+        <v>-6.15</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -3919,7 +3919,7 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>28148404</v>
+        <v>270327274</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -3927,10 +3927,10 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>1367251559</v>
+        <v>1346264153</v>
       </c>
       <c r="M67" t="n">
-        <v>1953263608.77</v>
+        <v>1389717221.29</v>
       </c>
     </row>
     <row r="68">
@@ -3951,19 +3951,19 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="E68" t="n">
-        <v>0.61</v>
+        <v>-0.82</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.41</v>
+        <v>-5.95</v>
       </c>
       <c r="G68" t="n">
-        <v>21.22</v>
+        <v>18.58</v>
       </c>
       <c r="H68" t="n">
-        <v>14.69</v>
+        <v>13.53</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>201461694</v>
+        <v>185072849</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -3979,10 +3979,10 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>1343356478</v>
+        <v>1327023998</v>
       </c>
       <c r="M68" t="n">
-        <v>6751024056.38</v>
+        <v>6670335447.56</v>
       </c>
     </row>
     <row r="69">
@@ -3993,81 +3993,81 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
+          <t>Solv Protocol SolvBTC
+SOLVBTC</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>US$</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>63126.09</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-1.95</v>
+      </c>
+      <c r="G69" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="H69" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>US$</t>
+        </is>
+      </c>
+      <c r="J69" t="n">
+        <v>590389</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>US$</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1311516781</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1311681110.78</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
           <t>Bonk
 BONK</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>US$</t>
-        </is>
-      </c>
-      <c r="D69" t="n">
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>US$</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
         <v>0</v>
       </c>
-      <c r="E69" t="n">
-        <v>-0.34</v>
-      </c>
-      <c r="F69" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="G69" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="H69" t="n">
-        <v>-3.99</v>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>US$</t>
-        </is>
-      </c>
-      <c r="J69" t="n">
-        <v>224766542</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>US$</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1327874399</v>
-      </c>
-      <c r="M69" t="n">
-        <v>1787555975.51</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Solv Protocol SolvBTC
-SOLVBTC</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>US$</t>
-        </is>
-      </c>
-      <c r="D70" t="n">
-        <v>63291.38</v>
-      </c>
       <c r="E70" t="n">
-        <v>0.07000000000000001</v>
+        <v>-0.84</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.18</v>
+        <v>0.46</v>
       </c>
       <c r="G70" t="n">
-        <v>5.08</v>
+        <v>14.52</v>
       </c>
       <c r="H70" t="n">
-        <v>-0.19</v>
+        <v>-4.58</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>666089</v>
+        <v>218941663</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -4083,10 +4083,10 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>1316366487</v>
+        <v>1306174733</v>
       </c>
       <c r="M70" t="n">
-        <v>1316331488.33</v>
+        <v>1758685848.52</v>
       </c>
     </row>
     <row r="71">
@@ -4107,19 +4107,19 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>7.6</v>
+        <v>7.59</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.9399999999999999</v>
+        <v>-0.03</v>
       </c>
       <c r="F71" t="n">
-        <v>1.82</v>
+        <v>-0.25</v>
       </c>
       <c r="G71" t="n">
-        <v>8.050000000000001</v>
+        <v>8.32</v>
       </c>
       <c r="H71" t="n">
-        <v>10.86</v>
+        <v>6.66</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
@@ -4127,7 +4127,7 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>14756876</v>
+        <v>14340267</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -4135,10 +4135,10 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>1295439595</v>
+        <v>1293814073</v>
       </c>
       <c r="M71" t="n">
-        <v>1696630294.49</v>
+        <v>1694522427.78</v>
       </c>
     </row>
     <row r="72">
@@ -4159,19 +4159,19 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>2693.03</v>
+        <v>2683.82</v>
       </c>
       <c r="E72" t="n">
-        <v>0.04</v>
+        <v>-0.44</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.43</v>
+        <v>-3.84</v>
       </c>
       <c r="G72" t="n">
-        <v>11.08</v>
+        <v>10.02</v>
       </c>
       <c r="H72" t="n">
-        <v>-3.71</v>
+        <v>-4.09</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>8369747</v>
+        <v>8164321</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -4187,10 +4187,10 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>1288383972</v>
+        <v>1282842943</v>
       </c>
       <c r="M72" t="n">
-        <v>1288415957.52</v>
+        <v>1283070205.95</v>
       </c>
     </row>
     <row r="73">
@@ -4214,16 +4214,16 @@
         <v>0.34</v>
       </c>
       <c r="E73" t="n">
-        <v>0.01</v>
+        <v>-0.9</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.68</v>
+        <v>-4.41</v>
       </c>
       <c r="G73" t="n">
-        <v>19.12</v>
+        <v>16.4</v>
       </c>
       <c r="H73" t="n">
-        <v>13.24</v>
+        <v>12.24</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>48774879</v>
+        <v>47305695</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -4239,10 +4239,10 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>1241264400</v>
+        <v>1227575989</v>
       </c>
       <c r="M73" t="n">
-        <v>3424273257.5</v>
+        <v>3386851306.09</v>
       </c>
     </row>
     <row r="74">
@@ -4266,16 +4266,16 @@
         <v>0.41</v>
       </c>
       <c r="E74" t="n">
-        <v>0.34</v>
+        <v>-0.2</v>
       </c>
       <c r="F74" t="n">
-        <v>1.59</v>
+        <v>0.97</v>
       </c>
       <c r="G74" t="n">
-        <v>8.5</v>
+        <v>8.35</v>
       </c>
       <c r="H74" t="n">
-        <v>-18.4</v>
+        <v>-18.09</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>7690132</v>
+        <v>8116600</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -4291,10 +4291,10 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1194084865</v>
+        <v>1195295745</v>
       </c>
       <c r="M74" t="n">
-        <v>4129438278</v>
+        <v>4133758126.78</v>
       </c>
     </row>
     <row r="75">
@@ -4315,19 +4315,19 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.23</v>
+        <v>-0.4</v>
       </c>
       <c r="F75" t="n">
-        <v>1.22</v>
+        <v>-4.1</v>
       </c>
       <c r="G75" t="n">
-        <v>21.35</v>
+        <v>19.4</v>
       </c>
       <c r="H75" t="n">
-        <v>-1.44</v>
+        <v>-1.39</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>189671781</v>
+        <v>159538533</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -4343,10 +4343,10 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1192964116</v>
+        <v>1180421622</v>
       </c>
       <c r="M75" t="n">
-        <v>8836840311.09</v>
+        <v>8745411815.25</v>
       </c>
     </row>
     <row r="76">
@@ -4370,16 +4370,16 @@
         <v>0.14</v>
       </c>
       <c r="E76" t="n">
-        <v>0.42</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="F76" t="n">
-        <v>1.97</v>
+        <v>-1.05</v>
       </c>
       <c r="G76" t="n">
-        <v>11.2</v>
+        <v>10.41</v>
       </c>
       <c r="H76" t="n">
-        <v>3.22</v>
+        <v>2.33</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>58024316</v>
+        <v>56756448</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -4395,10 +4395,10 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1150496402</v>
+        <v>1139669405</v>
       </c>
       <c r="M76" t="n">
-        <v>1150505409.69</v>
+        <v>1139738226.37</v>
       </c>
     </row>
     <row r="77">
@@ -4419,19 +4419,19 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>78.5</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="E77" t="n">
-        <v>0.21</v>
+        <v>-0.24</v>
       </c>
       <c r="F77" t="n">
-        <v>1.09</v>
+        <v>-0.02</v>
       </c>
       <c r="G77" t="n">
-        <v>9.01</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="H77" t="n">
-        <v>19.05</v>
+        <v>18.29</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>17882884</v>
+        <v>17891337</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -4447,147 +4447,147 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1141319449</v>
+        <v>1135526955</v>
       </c>
       <c r="M77" t="n">
-        <v>1146700978.64</v>
+        <v>1141003693.54</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Ondo
+ONDO</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>US$</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="E78" t="n">
+        <v>-1.07</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-0.86</v>
+      </c>
+      <c r="G78" t="n">
+        <v>27.49</v>
+      </c>
+      <c r="H78" t="n">
+        <v>11.17</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>US$</t>
+        </is>
+      </c>
+      <c r="J78" t="n">
+        <v>524591433</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>US$</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1114732707</v>
+      </c>
+      <c r="M78" t="n">
+        <v>7721163716.16</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
           <t>78</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Gate
+GT</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>US$</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="E79" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-2.67</v>
+      </c>
+      <c r="G79" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="H79" t="n">
+        <v>17.08</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>US$</t>
+        </is>
+      </c>
+      <c r="J79" t="n">
+        <v>3099339</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>US$</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1112218700</v>
+      </c>
+      <c r="M79" t="n">
+        <v>2605540892.44</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
         <is>
           <t>Lido DAO
 LDO</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>US$</t>
-        </is>
-      </c>
-      <c r="D78" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="E78" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="F78" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="G78" t="n">
-        <v>27.04</v>
-      </c>
-      <c r="H78" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>US$</t>
-        </is>
-      </c>
-      <c r="J78" t="n">
-        <v>135036792</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>US$</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1129707377</v>
-      </c>
-      <c r="M78" t="n">
-        <v>1261812426.69</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Ondo
-ONDO</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>US$</t>
-        </is>
-      </c>
-      <c r="D79" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="E79" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="F79" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="G79" t="n">
-        <v>31.91</v>
-      </c>
-      <c r="H79" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>US$</t>
-        </is>
-      </c>
-      <c r="J79" t="n">
-        <v>529313109</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>US$</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1128574723</v>
-      </c>
-      <c r="M79" t="n">
-        <v>7816888129.48</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Gate
-GT</t>
-        </is>
-      </c>
       <c r="C80" t="inlineStr">
         <is>
           <t>US$</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>8.74</v>
+        <v>1.24</v>
       </c>
       <c r="E80" t="n">
-        <v>0.05</v>
+        <v>-0.9</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.79</v>
+        <v>-2.07</v>
       </c>
       <c r="G80" t="n">
-        <v>7.45</v>
+        <v>22.66</v>
       </c>
       <c r="H80" t="n">
-        <v>17.67</v>
+        <v>4.5</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
@@ -4595,7 +4595,7 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>3047479</v>
+        <v>132924658</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -4603,10 +4603,10 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>1119647952</v>
+        <v>1107755276</v>
       </c>
       <c r="M80" t="n">
-        <v>2622862328.12</v>
+        <v>1237332280.68</v>
       </c>
     </row>
     <row r="81">
@@ -4630,16 +4630,16 @@
         <v>0.02</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.1</v>
+        <v>-0.72</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.21</v>
+        <v>-3.13</v>
       </c>
       <c r="G81" t="n">
-        <v>15.39</v>
+        <v>12.36</v>
       </c>
       <c r="H81" t="n">
-        <v>9.07</v>
+        <v>7.47</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>85208692</v>
+        <v>83739608</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -4655,10 +4655,10 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>1101075020</v>
+        <v>1085675583</v>
       </c>
       <c r="M81" t="n">
-        <v>1136968507.3</v>
+        <v>1121102423.81</v>
       </c>
     </row>
     <row r="82">
@@ -4679,19 +4679,19 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="E82" t="n">
-        <v>0.28</v>
+        <v>-0.48</v>
       </c>
       <c r="F82" t="n">
-        <v>6.97</v>
+        <v>2.17</v>
       </c>
       <c r="G82" t="n">
-        <v>13.65</v>
+        <v>9.83</v>
       </c>
       <c r="H82" t="n">
-        <v>33.86</v>
+        <v>30.72</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>36128442</v>
+        <v>36569608</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -4707,10 +4707,10 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1031467217</v>
+        <v>1010429140</v>
       </c>
       <c r="M82" t="n">
-        <v>1087371629.77</v>
+        <v>1065226902.65</v>
       </c>
     </row>
     <row r="83">
@@ -4721,133 +4721,133 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
+          <t>Worldcoin
+WLD</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>US$</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F83" t="n">
+        <v>16.56</v>
+      </c>
+      <c r="G83" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="H83" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>US$</t>
+        </is>
+      </c>
+      <c r="J83" t="n">
+        <v>706756600</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>US$</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>999014821</v>
+      </c>
+      <c r="M83" t="n">
+        <v>21209097012.55</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Bitcoin SV
+BSV</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>US$</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>50.42</v>
+      </c>
+      <c r="E84" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G84" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="H84" t="n">
+        <v>14.55</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>US$</t>
+        </is>
+      </c>
+      <c r="J84" t="n">
+        <v>36110928</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>US$</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>996959193</v>
+      </c>
+      <c r="M84" t="n">
+        <v>1059579110.72</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
           <t>Popcat
 POPCAT</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>US$</t>
-        </is>
-      </c>
-      <c r="D83" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="E83" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="F83" t="n">
-        <v>6.45</v>
-      </c>
-      <c r="G83" t="n">
-        <v>47.13</v>
-      </c>
-      <c r="H83" t="n">
-        <v>45.73</v>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>US$</t>
-        </is>
-      </c>
-      <c r="J83" t="n">
-        <v>130400719</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>US$</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1006959585</v>
-      </c>
-      <c r="M83" t="n">
-        <v>1006984583.8</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Worldcoin
-WLD</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>US$</t>
-        </is>
-      </c>
-      <c r="D84" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="E84" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F84" t="n">
-        <v>19.58</v>
-      </c>
-      <c r="G84" t="n">
-        <v>41.09</v>
-      </c>
-      <c r="H84" t="n">
-        <v>27.14</v>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>US$</t>
-        </is>
-      </c>
-      <c r="J84" t="n">
-        <v>723574605</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>US$</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>997861717</v>
-      </c>
-      <c r="M84" t="n">
-        <v>21204985435.06</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Bitcoin SV
-BSV</t>
-        </is>
-      </c>
       <c r="C85" t="inlineStr">
         <is>
           <t>US$</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>50.36</v>
+        <v>0.99</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.12</v>
+        <v>-2.48</v>
       </c>
       <c r="F85" t="n">
-        <v>1.91</v>
+        <v>-0.34</v>
       </c>
       <c r="G85" t="n">
-        <v>9.24</v>
+        <v>28.05</v>
       </c>
       <c r="H85" t="n">
-        <v>13.48</v>
+        <v>41.25</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>37209485</v>
+        <v>123335273</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -4863,10 +4863,10 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>994465197</v>
+        <v>972737015</v>
       </c>
       <c r="M85" t="n">
-        <v>1056815584.8</v>
+        <v>972755929.75</v>
       </c>
     </row>
     <row r="86">
@@ -4887,19 +4887,19 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="E86" t="n">
-        <v>1.2</v>
+        <v>-0.99</v>
       </c>
       <c r="F86" t="n">
-        <v>2.97</v>
+        <v>-0.51</v>
       </c>
       <c r="G86" t="n">
-        <v>14.81</v>
+        <v>12.16</v>
       </c>
       <c r="H86" t="n">
-        <v>-1.58</v>
+        <v>-2.41</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>49437825</v>
+        <v>48441363</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -4915,10 +4915,10 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>984801356</v>
+        <v>970334234</v>
       </c>
       <c r="M86" t="n">
-        <v>2268889437.41</v>
+        <v>2235902285.74</v>
       </c>
     </row>
     <row r="87">
@@ -4939,19 +4939,19 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>2632.4</v>
+        <v>2622.17</v>
       </c>
       <c r="E87" t="n">
-        <v>0.03</v>
+        <v>-0.41</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.59</v>
+        <v>-3.64</v>
       </c>
       <c r="G87" t="n">
-        <v>11.03</v>
+        <v>10.24</v>
       </c>
       <c r="H87" t="n">
-        <v>-3.77</v>
+        <v>-4.07</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>12317290</v>
+        <v>12650381</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -4967,10 +4967,10 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>955869586</v>
+        <v>951285625</v>
       </c>
       <c r="M87" t="n">
-        <v>955893316.83</v>
+        <v>951404817.91</v>
       </c>
     </row>
     <row r="88">
@@ -4991,19 +4991,19 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>8.07</v>
+        <v>8</v>
       </c>
       <c r="E88" t="n">
-        <v>0.59</v>
+        <v>-0.61</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.78</v>
+        <v>-2.27</v>
       </c>
       <c r="G88" t="n">
-        <v>11.4</v>
+        <v>9.23</v>
       </c>
       <c r="H88" t="n">
-        <v>-5.53</v>
+        <v>-5.42</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>75297.64</v>
+        <v>64034.42</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -5019,10 +5019,10 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>951110155</v>
+        <v>944260618</v>
       </c>
       <c r="M88" t="n">
-        <v>1152739185.14</v>
+        <v>1144473681.89</v>
       </c>
     </row>
     <row r="89">
@@ -5046,16 +5046,16 @@
         <v>0.61</v>
       </c>
       <c r="E89" t="n">
-        <v>0.62</v>
+        <v>-0.61</v>
       </c>
       <c r="F89" t="n">
-        <v>1.98</v>
+        <v>-0.15</v>
       </c>
       <c r="G89" t="n">
-        <v>14.79</v>
+        <v>12.91</v>
       </c>
       <c r="H89" t="n">
-        <v>5.35</v>
+        <v>5.68</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>38248316</v>
+        <v>37390672</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -5071,10 +5071,10 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>937545160</v>
+        <v>931927980</v>
       </c>
       <c r="M89" t="n">
-        <v>937515599</v>
+        <v>931927983.89</v>
       </c>
     </row>
     <row r="90">
@@ -5098,16 +5098,16 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E90" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.23</v>
+        <v>0.14</v>
       </c>
       <c r="G90" t="n">
-        <v>5.9</v>
+        <v>5.79</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>2.23</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>32456771</v>
+        <v>31863211</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -5123,251 +5123,251 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>889792691</v>
+        <v>890066433</v>
       </c>
       <c r="M90" t="n">
-        <v>909806231.05</v>
+        <v>910184919.5599999</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Notcoin
+NOT</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>US$</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E91" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="F91" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="G91" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>US$</t>
+        </is>
+      </c>
+      <c r="J91" t="n">
+        <v>283511507</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>US$</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>879506816</v>
+      </c>
+      <c r="M91" t="n">
+        <v>879506819.91</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
           <t>90</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B92" t="inlineStr">
         <is>
           <t>Beam
 BEAM</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>US$</t>
-        </is>
-      </c>
-      <c r="D91" t="n">
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>US$</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
         <v>0.02</v>
       </c>
-      <c r="E91" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="F91" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="G91" t="n">
-        <v>14.94</v>
-      </c>
-      <c r="H91" t="n">
-        <v>12.87</v>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>US$</t>
-        </is>
-      </c>
-      <c r="J91" t="n">
-        <v>31050194</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>US$</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>886273900</v>
-      </c>
-      <c r="M91" t="n">
-        <v>1080505620.22</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
+      <c r="E92" t="n">
+        <v>-0.73</v>
+      </c>
+      <c r="F92" t="n">
+        <v>-1.67</v>
+      </c>
+      <c r="G92" t="n">
+        <v>13.11</v>
+      </c>
+      <c r="H92" t="n">
+        <v>11.57</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>US$</t>
+        </is>
+      </c>
+      <c r="J92" t="n">
+        <v>30177537</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>US$</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>877333777</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1069829173.36</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>ether.fi Staked ETH
+EETH</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>US$</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>2564.55</v>
+      </c>
+      <c r="E93" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="F93" t="n">
+        <v>-3.32</v>
+      </c>
+      <c r="G93" t="n">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="H93" t="n">
+        <v>-4.26</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>US$</t>
+        </is>
+      </c>
+      <c r="J93" t="n">
+        <v>102800</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>US$</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>863212058</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5111888201.83</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
         <is>
           <t>Brett
 BRETT</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>US$</t>
-        </is>
-      </c>
-      <c r="D92" t="n">
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>US$</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
         <v>0.09</v>
       </c>
-      <c r="E92" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="F92" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="G92" t="n">
-        <v>19.74</v>
-      </c>
-      <c r="H92" t="n">
-        <v>-0.95</v>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>US$</t>
-        </is>
-      </c>
-      <c r="J92" t="n">
-        <v>43429188</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>US$</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>864646087</v>
-      </c>
-      <c r="M92" t="n">
-        <v>864623099.96</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>ether.fi Staked ETH
-EETH</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>US$</t>
-        </is>
-      </c>
-      <c r="D93" t="n">
-        <v>2575.05</v>
-      </c>
-      <c r="E93" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="F93" t="n">
-        <v>-2.21</v>
-      </c>
-      <c r="G93" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="H93" t="n">
-        <v>-3.85</v>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>US$</t>
-        </is>
-      </c>
-      <c r="J93" t="n">
-        <v>116607</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>US$</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>863796346</v>
-      </c>
-      <c r="M93" t="n">
-        <v>5129826814.46</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
+      <c r="E94" t="n">
+        <v>-0.8100000000000001</v>
+      </c>
+      <c r="F94" t="n">
+        <v>-2.42</v>
+      </c>
+      <c r="G94" t="n">
+        <v>17.27</v>
+      </c>
+      <c r="H94" t="n">
+        <v>-1.86</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>US$</t>
+        </is>
+      </c>
+      <c r="J94" t="n">
+        <v>40294499</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>US$</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>854617892</v>
+      </c>
+      <c r="M94" t="n">
+        <v>854773304.42</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
         <is>
           <t>93</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t>GALA
 GALA</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>US$</t>
-        </is>
-      </c>
-      <c r="D94" t="n">
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>US$</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
         <v>0.02</v>
       </c>
-      <c r="E94" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="F94" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="G94" t="n">
-        <v>20.19</v>
-      </c>
-      <c r="H94" t="n">
-        <v>8.27</v>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>US$</t>
-        </is>
-      </c>
-      <c r="J94" t="n">
-        <v>121239444</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>US$</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>862791516</v>
-      </c>
-      <c r="M94" t="n">
-        <v>862764631.96</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Notcoin
-NOT</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>US$</t>
-        </is>
-      </c>
-      <c r="D95" t="n">
-        <v>0.01</v>
-      </c>
       <c r="E95" t="n">
-        <v>0.49</v>
+        <v>-0.4</v>
       </c>
       <c r="F95" t="n">
-        <v>7.22</v>
+        <v>-1.55</v>
       </c>
       <c r="G95" t="n">
-        <v>16.88</v>
+        <v>18.02</v>
       </c>
       <c r="H95" t="n">
-        <v>-3.85</v>
+        <v>7.25</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>277096289</v>
+        <v>120966597</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -5383,10 +5383,10 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>861067198</v>
+        <v>853598502</v>
       </c>
       <c r="M95" t="n">
-        <v>861088575.42</v>
+        <v>853598447.02</v>
       </c>
     </row>
     <row r="96">
@@ -5407,19 +5407,19 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="E96" t="n">
-        <v>0.86</v>
+        <v>0.14</v>
       </c>
       <c r="F96" t="n">
-        <v>2.43</v>
+        <v>0.01</v>
       </c>
       <c r="G96" t="n">
-        <v>10.99</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="H96" t="n">
-        <v>2.94</v>
+        <v>2.33</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>102822579</v>
+        <v>107811174</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -5435,10 +5435,10 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>813602125</v>
+        <v>802245903</v>
       </c>
       <c r="M96" t="n">
-        <v>1126349361.71</v>
+        <v>1110641563.15</v>
       </c>
     </row>
     <row r="97">
@@ -5459,19 +5459,19 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>29.34</v>
+        <v>29.1</v>
       </c>
       <c r="E97" t="n">
-        <v>0.28</v>
+        <v>-0.5</v>
       </c>
       <c r="F97" t="n">
-        <v>2.36</v>
+        <v>0.18</v>
       </c>
       <c r="G97" t="n">
-        <v>13.02</v>
+        <v>12.42</v>
       </c>
       <c r="H97" t="n">
-        <v>-4.11</v>
+        <v>-4.62</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>22821310</v>
+        <v>24538683</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -5487,10 +5487,10 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>804821202</v>
+        <v>799677512</v>
       </c>
       <c r="M97" t="n">
-        <v>804795825.83</v>
+        <v>799869470.84</v>
       </c>
     </row>
     <row r="98">
@@ -5501,81 +5501,81 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
+          <t>Marinade Staked SOL
+MSOL</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>US$</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>181.54</v>
+      </c>
+      <c r="E98" t="n">
+        <v>-0.63</v>
+      </c>
+      <c r="F98" t="n">
+        <v>-2.59</v>
+      </c>
+      <c r="G98" t="n">
+        <v>13.52</v>
+      </c>
+      <c r="H98" t="n">
+        <v>-5</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>US$</t>
+        </is>
+      </c>
+      <c r="J98" t="n">
+        <v>19867345</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>US$</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>790343001</v>
+      </c>
+      <c r="M98" t="n">
+        <v>790343003.9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
           <t>Starknet
 STRK</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>US$</t>
-        </is>
-      </c>
-      <c r="D98" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="E98" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="F98" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="G98" t="n">
-        <v>18.05</v>
-      </c>
-      <c r="H98" t="n">
-        <v>17.02</v>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>US$</t>
-        </is>
-      </c>
-      <c r="J98" t="n">
-        <v>180656193</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>US$</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>800664395</v>
-      </c>
-      <c r="M98" t="n">
-        <v>4498706185.95</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Marinade Staked SOL
-MSOL</t>
-        </is>
-      </c>
       <c r="C99" t="inlineStr">
         <is>
           <t>US$</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>182.89</v>
+        <v>0.44</v>
       </c>
       <c r="E99" t="n">
-        <v>-0.65</v>
+        <v>-1.09</v>
       </c>
       <c r="F99" t="n">
-        <v>0.92</v>
+        <v>6.4</v>
       </c>
       <c r="G99" t="n">
-        <v>14.64</v>
+        <v>16.19</v>
       </c>
       <c r="H99" t="n">
-        <v>-4.63</v>
+        <v>16.11</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
@@ -5583,7 +5583,7 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>20392225</v>
+        <v>166647180</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -5591,16 +5591,16 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>795855653</v>
+        <v>787758863</v>
       </c>
       <c r="M99" t="n">
-        <v>795830559.6</v>
+        <v>4426668999.26</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>98</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -5618,16 +5618,16 @@
         <v>0.14</v>
       </c>
       <c r="E100" t="n">
-        <v>0.39</v>
+        <v>-0.44</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9</v>
+        <v>-0.96</v>
       </c>
       <c r="G100" t="n">
-        <v>4.87</v>
+        <v>3.7</v>
       </c>
       <c r="H100" t="n">
-        <v>-18.7</v>
+        <v>-18.93</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>15889262</v>
+        <v>14826005</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>792884361</v>
+        <v>787312517</v>
       </c>
       <c r="M100" t="n">
-        <v>795859717.35</v>
+        <v>790348857.41</v>
       </c>
     </row>
     <row r="101">
@@ -5667,19 +5667,19 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>5.22</v>
+        <v>5.17</v>
       </c>
       <c r="E101" t="n">
-        <v>0.74</v>
+        <v>-0.66</v>
       </c>
       <c r="F101" t="n">
-        <v>1.93</v>
+        <v>0.06</v>
       </c>
       <c r="G101" t="n">
-        <v>13.98</v>
+        <v>11.77</v>
       </c>
       <c r="H101" t="n">
-        <v>4.47</v>
+        <v>3.61</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>33954866</v>
+        <v>34354683</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -5695,10 +5695,10 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>785505929</v>
+        <v>780218528</v>
       </c>
       <c r="M101" t="n">
-        <v>1408573027.59</v>
+        <v>1399097359.08</v>
       </c>
     </row>
   </sheetData>
